--- a/2019/Hybrid-Framework-master/src/test/java/com/totsy/xls/Check out.xlsx
+++ b/2019/Hybrid-Framework-master/src/test/java/com/totsy/xls/Check out.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-45" windowWidth="25365" windowHeight="12405" tabRatio="783" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-45" windowWidth="20730" windowHeight="11760" tabRatio="783" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="EditYourCart" sheetId="11" r:id="rId12"/>
     <sheet name="OrderConfirm" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10508" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="381">
   <si>
     <t>TCID</t>
   </si>
@@ -1080,42 +1080,9 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL -- Not able to click on ButtonThe element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: e2ce8ddb07c124822d125f3e53cfa1c2
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 597ff86610cb2f4a566bf5ee6b6a4627
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
     <t>Result1</t>
   </si>
   <si>
-    <t>FAIL - Could not select from list. The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: d90ee2656ad69030b63857f5448c5929
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Cannot find elements when the XPath expression is null.</t>
-  </si>
-  <si>
     <t>Result2</t>
   </si>
   <si>
@@ -1143,1097 +1110,7 @@
     <t>Result10</t>
   </si>
   <si>
-    <t>FAIL -- Not able to click on ButtonThe element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: b9ea6453214314a5d99272db2a6b5cdf
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
     <t>FAIL Not able to click</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 44f7eaa7369b94d59fd8a615025edd3f
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: c6bb0f981b74f9f595cb24ccca561b5d
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 99dc5536a01f79e6710cb099f44f1e15
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to select The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonThe element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 8011d0b25a788e14d647f5d36a3768d8
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: d0ea652b16251cf431d64e2f6354da3a
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 521cb7e0b443b9425a19823f49a62b79
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 521cb7e0b443b9425a19823f49a62b79
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 521cb7e0b443b9425a19823f49a62b79
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 6b6f583a18c28e479afef2c279418c5b
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 6b6f583a18c28e479afef2c279418c5b
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write The element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 6b6f583a18c28e479afef2c279418c5b
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonThe element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 6b6f583a18c28e479afef2c279418c5b
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonThe element could not be found (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 6b6f583a18c28e479afef2c279418c5b
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is not currently interactable and may not be manipulated (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 47 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is in an invalid state (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 82 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is not currently interactable and may not be manipulated (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 37 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is in an invalid state (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 85 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is not currently interactable and may not be manipulated (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 32 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is in an invalid state (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 76 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is not currently interactable and may not be manipulated (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 33 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is in an invalid state (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 84 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is in an invalid state (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 79 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to select Element is in an invalid state (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 84 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is not currently interactable and may not be manipulated (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 36 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is in an invalid state (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 95 milliseconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.7.0_09'
-Session ID: 32e8bbbacacbf66ee2c5cdf9a22819ed
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{platform=XP, chrome.chromedriverVersion=22.0.1203.0, acceptSslCerts=false, javascriptEnabled=true, browserName=chrome, rotatable=false, locationContextEnabled=false, version=23.0.1271.97, cssSelectorsEnabled=true, databaseEnabled=false, handlesAlerts=true, browserConnectionEnabled=false, webStorageEnabled=true, nativeEvents=true, chrome.nativeEvents=false, applicationCacheEnabled=false, takesScreenshot=true}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.16 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 17f05126-d239-e04d-90e2-aba74084a2dc
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.18 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 80a725e5-d1f0-0241-9b1b-edc797c83754
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 963a727e-1795-0b44-83f1-4a92f069296f
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:firstname']"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:firstname']"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:lastname']"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:lastname']"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:telephone']"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:telephone']"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:street1']"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:street1']"}
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:city']"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:city']"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to select Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:region_id']"}
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:postcode']"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:postcode']"}
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='billing-new-address-form fields alpha']/div[6]/button"}
-Command duration or timeout: 20.02 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_10'
-Session ID: 63784af0-214e-0a43-ba7f-d9a546fcedcb
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=17.0.1}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. n must be positive</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: aa787721-b9c7-5242-af22-5331857a88e6
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.19 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 53bc7626-d35f-c542-b99c-84a1ea784c04
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='discount-coupon-form']/fieldset/button[1]"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 3465fff0-8e26-764e-84cc-335cc7dd4213
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.19 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"css selector","selector":"#qty"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#qty"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.03 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.06 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.05 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.02 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.05 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.04 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to select Element is disabled and so may not be used for actions
-Command duration or timeout: 20.10 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.03 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='billing-new-address-form fields alpha']/div[6]/button"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.2', java.version: '1.7.0_13'
-Session ID: 0b04261f-3194-0146-be2d-336245b441e4
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: b8ddfd8a-048b-8942-9657-20e5fce35238
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 21.46 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 13f6ed31-b2c5-694b-8eee-6215c6fd6ef8
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"css selector","selector":"#qty"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 13f6ed31-b2c5-694b-8eee-6215c6fd6ef8
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#qty"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 13f6ed31-b2c5-694b-8eee-6215c6fd6ef8
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.46 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 13f6ed31-b2c5-694b-8eee-6215c6fd6ef8
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.03 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 13f6ed31-b2c5-694b-8eee-6215c6fd6ef8
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='discount-coupon-form']/fieldset/button[1]"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 0fa95030-8e56-a647-9e20-be35f2492cc5
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.26 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 52fd04b0-54be-7741-80c0-b70be71a7594
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.09 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.09 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.03 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.06 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.01 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.04 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.04 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.05 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to select Element is disabled and so may not be used for actions
-Command duration or timeout: 20.09 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.01 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6427dfba-5538-7849-ba62-41f7184d0447
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 0d4d8ce0-e635-9d4e-84cb-89ab499f1af2
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.15 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: bf1b7636-e1d2-4541-865a-0192f4634622
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"css selector","selector":"#qty"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: bf1b7636-e1d2-4541-865a-0192f4634622
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#qty"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: bf1b7636-e1d2-4541-865a-0192f4634622
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.01 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: bf1b7636-e1d2-4541-865a-0192f4634622
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.03 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: bf1b7636-e1d2-4541-865a-0192f4634622
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='discount-coupon-form']/fieldset/button[1]"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6a8db7d5-e3c5-e541-8c3a-4b5038011715
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.21 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 6f696649-ab73-f64d-9906-dc69761fb6ce
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.08 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.10 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.07 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.08 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.05 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Element is disabled and so may not be used for actions
-Command duration or timeout: 20.06 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.04 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to select Element is disabled and so may not be used for actions
-Command duration or timeout: 20.11 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Element is disabled and so may not be used for actions
-Command duration or timeout: 20.07 seconds
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: c74ee73e-9cc4-0a4d-bf14-bd5ca72cdbd9
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.19 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: cf6443db-8e77-4b47-821b-a1afac236b9b
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='items-info-wrapper']/div[2]/div[2]/a"}
-Command duration or timeout: 20.19 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: cf6443db-8e77-4b47-821b-a1afac236b9b
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-Command duration or timeout: 20.15 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: d8b47cf5-b7f3-f44f-89ab-8bca7b120542
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"css selector","selector":"#qty"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: d8b47cf5-b7f3-f44f-89ab-8bca7b120542
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"css selector","selector":"#qty"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: d8b47cf5-b7f3-f44f-89ab-8bca7b120542
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='items-info-wrapper']/div[2]/div[2]/a"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: d8b47cf5-b7f3-f44f-89ab-8bca7b120542
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='items-info-wrapper']/div[2]/div[2]/a"}
-Command duration or timeout: 20.07 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 3ae13852-5536-b845-8e19-abd2129ad13d
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"css selector","selector":".pull-right.btn.button"}
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: 3ae13852-5536-b845-8e19-abd2129ad13d
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
   </si>
   <si>
     <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='items-info-wrapper']/div[2]/div[2]/a"}
@@ -2296,305 +1173,7 @@
 Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
   </si>
   <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='items-info-wrapper']/div[2]/div[2]/a"}
-Command duration or timeout: 20.18 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='mainContent']/div[2]/div[1]/div[2]/button"}
-Command duration or timeout: 20.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:firstname']"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:firstname']"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:lastname']"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:lastname']"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:telephone']"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:telephone']"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:street1']"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:street1']"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:city']"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:city']"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to select Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:region_id']"}
-Command duration or timeout: 20.04 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:postcode']"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"//*[@id='billing:postcode']"}
-Command duration or timeout: 20.05 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//*[@id='billing-new-address-form fields alpha']/div[6]/button"}
-Command duration or timeout: 20.09 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.28.0', revision: '18309', time: '2012-12-11 15:53:30'
-System info: os.name: 'Mac OS X', os.arch: 'x86_64', os.version: '10.8.3', java.version: '1.7.0_13'
-Session ID: fdbf3401-b2f3-ae4b-8375-b496b4745aac
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{platform=MAC, databaseEnabled=true, cssSelectorsEnabled=true, javascriptEnabled=true, acceptSslCerts=true, handlesAlerts=true, browserName=firefox, browserConnectionEnabled=true, nativeEvents=false, webStorageEnabled=true, rotatable=false, locationContextEnabled=true, applicationCacheEnabled=true, takesScreenshot=true, version=18.0}]</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write no such element: Unable to locate element: {"method":"css selector","selector":"#email"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1132}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: fea2f8c28ca25a4ce8569f29b8b157ac
-*** Element info: {Using=css selector, value=#email}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write no such element: Unable to locate element: {"method":"css selector","selector":"#pass"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1132}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: fea2f8c28ca25a4ce8569f29b8b157ac
-*** Element info: {Using=css selector, value=#pass}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on Buttonno such element: Unable to locate element: {"method":"css selector","selector":"#submit-button"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1132}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: fea2f8c28ca25a4ce8569f29b8b157ac
-*** Element info: {Using=css selector, value=#submit-button}</t>
-  </si>
-  <si>
     <t>FAIL - Could not select from list. bound must be positive</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1132}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: fea2f8c28ca25a4ce8569f29b8b157ac
-*** Element info: {Using=xpath, value=//*[@id='attribute169']}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text Cannot find elements when the XPath is null.</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Cannot find elements when the XPath is null.</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on Buttonno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='items-info-wrapper']/div[2]/div[2]/a"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1132}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: fea2f8c28ca25a4ce8569f29b8b157ac
-*** Element info: {Using=xpath, value=//*[@id='items-info-wrapper']/div[2]/div[2]/a}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write no such element: Unable to locate element: {"method":"css selector","selector":"#email"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1206}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: ce7c71541a48ef10305ace1259a7c44e
-*** Element info: {Using=css selector, value=#email}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write no such element: Unable to locate element: {"method":"css selector","selector":"#pass"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1206}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: ce7c71541a48ef10305ace1259a7c44e
-*** Element info: {Using=css selector, value=#pass}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on Buttonno such element: Unable to locate element: {"method":"css selector","selector":"#submit-button"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1206}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: ce7c71541a48ef10305ace1259a7c44e
-*** Element info: {Using=css selector, value=#submit-button}</t>
-  </si>
-  <si>
-    <t>FAIL - Could not select from list. no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1206}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: ce7c71541a48ef10305ace1259a7c44e
-*** Element info: {Using=xpath, value=//*[@id='attribute169']}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to clear input text no such element: Unable to locate element: {"method":"css selector","selector":"#qty"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1206}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: ce7c71541a48ef10305ace1259a7c44e
-*** Element info: {Using=css selector, value=#qty}</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write no such element: Unable to locate element: {"method":"css selector","selector":"#qty"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1206}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: ce7c71541a48ef10305ace1259a7c44e
-*** Element info: {Using=css selector, value=#qty}</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on Buttonno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='items-info-wrapper']/div[2]/div[2]/a"}
-  (Session info: chrome=75.0.3770.100)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1206}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
-Session ID: ce7c71541a48ef10305ace1259a7c44e
-*** Element info: {Using=xpath, value=//*[@id='items-info-wrapper']/div[2]/div[2]/a}</t>
   </si>
   <si>
     <t>FAIL Unable to write no such element: Unable to locate element: {"method":"css selector","selector":"#email"}
@@ -2706,11 +1285,72 @@
 Session ID: 710eb1465daddb996a9943082e938c85
 *** Element info: {Using=css selector, value=.pull-right.btn.button}</t>
   </si>
+  <si>
+    <t>FAIL Unable to write no such element: Unable to locate element: {"method":"css selector","selector":"#email"}
+  (Session info: chrome=75.0.3770.100)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1692}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: df64d7df2a6a8f1e8116a3c576f59355
+*** Element info: {Using=css selector, value=#email}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write no such element: Unable to locate element: {"method":"css selector","selector":"#pass"}
+  (Session info: chrome=75.0.3770.100)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1692}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: df64d7df2a6a8f1e8116a3c576f59355
+*** Element info: {Using=css selector, value=#pass}</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on Buttonno such element: Unable to locate element: {"method":"css selector","selector":"#submit-button"}
+  (Session info: chrome=75.0.3770.100)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1692}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: df64d7df2a6a8f1e8116a3c576f59355
+*** Element info: {Using=css selector, value=#submit-button}</t>
+  </si>
+  <si>
+    <t>FAIL - Could not select from list. no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='attribute169']"}
+  (Session info: chrome=75.0.3770.100)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1692}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: df64d7df2a6a8f1e8116a3c576f59355
+*** Element info: {Using=xpath, value=//*[@id='attribute169']}</t>
+  </si>
+  <si>
+    <t>FAIL Unable to clear input text Cannot find elements when the XPath is null.</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Cannot find elements when the XPath is null.</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on Buttonno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='items-info-wrapper']/div[2]/div[2]/a"}
+  (Session info: chrome=75.0.3770.100)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'DHARMAJI-PC', ip: '192.168.0.102', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_25'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 75.0.3770.100, chrome: {chromedriverVersion: 75.0.3770.90 (a6dcaf7e3ec6f..., userDataDir: C:\Users\Dharmaji\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:1692}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify}
+Session ID: df64d7df2a6a8f1e8116a3c576f59355
+*** Element info: {Using=xpath, value=//*[@id='items-info-wrapper']/div[2]/div[2]/a}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
@@ -2736,7 +1376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2876,7 +1516,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -2886,7 +1526,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -2896,7 +1536,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -2906,7 +1546,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -2916,57 +1556,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
         <fgColor indexed="55"/>
       </patternFill>
     </fill>
@@ -3146,6 +1736,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3155,16 +1755,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3254,7 +1844,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3289,7 +1878,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3465,22 +2053,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +2079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -3502,7 +2090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
         <v>252</v>
       </c>
@@ -3510,10 +2098,10 @@
         <v>243</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="43" t="s">
         <v>264</v>
       </c>
@@ -3521,10 +2109,10 @@
         <v>251</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="43" t="s">
         <v>236</v>
       </c>
@@ -3532,10 +2120,10 @@
         <v>237</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="43" t="s">
         <v>248</v>
       </c>
@@ -3543,10 +2131,10 @@
         <v>249</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
@@ -3554,10 +2142,10 @@
         <v>246</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
         <v>245</v>
       </c>
@@ -3568,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3579,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -3590,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="41" t="s">
         <v>241</v>
       </c>
@@ -3601,7 +2189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3612,7 +2200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -3623,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3640,34 +2228,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="10.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="16" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="16" width="11.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="16.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="16" width="19.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="16" width="9.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="16" width="15.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="6.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="16" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="16" width="5.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="16" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="16" width="78.7109375" collapsed="true"/>
-    <col min="17" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="18.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="5.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="78.7109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="15" t="s">
         <v>206</v>
       </c>
@@ -3717,7 +2305,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="31" t="s">
         <v>257</v>
       </c>
@@ -3767,7 +2355,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="33" t="s">
         <v>293</v>
       </c>
@@ -3817,7 +2405,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="23" t="s">
         <v>293</v>
       </c>
@@ -3867,7 +2455,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="27" t="s">
         <v>205</v>
       </c>
@@ -3917,7 +2505,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="29" t="s">
         <v>257</v>
       </c>
@@ -3967,7 +2555,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="23" t="s">
         <v>293</v>
       </c>
@@ -4017,7 +2605,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="31" t="s">
         <v>205</v>
       </c>
@@ -4067,7 +2655,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="33" t="s">
         <v>257</v>
       </c>
@@ -4117,7 +2705,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="34" t="s">
         <v>293</v>
       </c>
@@ -4167,7 +2755,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="27" t="s">
         <v>205</v>
       </c>
@@ -4224,35 +2812,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="20.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="6.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="16" width="13.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="16.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="16" width="16.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="16" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="16" width="15.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="6.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="16" width="18.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="16" width="78.7109375" collapsed="true"/>
-    <col min="17" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="78.7109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="15" t="s">
         <v>206</v>
       </c>
@@ -4302,7 +2890,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="31" t="s">
         <v>257</v>
       </c>
@@ -4352,7 +2940,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="33" t="s">
         <v>293</v>
       </c>
@@ -4402,7 +2990,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="23" t="s">
         <v>293</v>
       </c>
@@ -4452,7 +3040,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="27" t="s">
         <v>205</v>
       </c>
@@ -4502,7 +3090,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="29" t="s">
         <v>257</v>
       </c>
@@ -4552,7 +3140,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="23" t="s">
         <v>293</v>
       </c>
@@ -4602,7 +3190,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="31" t="s">
         <v>205</v>
       </c>
@@ -4652,7 +3240,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="33" t="s">
         <v>257</v>
       </c>
@@ -4702,7 +3290,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="34" t="s">
         <v>293</v>
       </c>
@@ -4752,7 +3340,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="27" t="s">
         <v>205</v>
       </c>
@@ -4808,34 +3396,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="17.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="6.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="16" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="16.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="16" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="16" width="15.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="16" width="6.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="18.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="16" width="255.0" collapsed="true"/>
-    <col min="16" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15" style="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="255" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>206</v>
       </c>
@@ -4882,7 +3470,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="31" t="s">
         <v>133</v>
       </c>
@@ -4929,7 +3517,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="33" t="s">
         <v>116</v>
       </c>
@@ -4976,7 +3564,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="23" t="s">
         <v>116</v>
       </c>
@@ -5023,7 +3611,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="27" t="s">
         <v>104</v>
       </c>
@@ -5070,7 +3658,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="29" t="s">
         <v>133</v>
       </c>
@@ -5117,7 +3705,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="23" t="s">
         <v>116</v>
       </c>
@@ -5164,7 +3752,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="31" t="s">
         <v>104</v>
       </c>
@@ -5211,7 +3799,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="33" t="s">
         <v>133</v>
       </c>
@@ -5258,7 +3846,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="34" t="s">
         <v>116</v>
       </c>
@@ -5305,7 +3893,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="27" t="s">
         <v>104</v>
       </c>
@@ -5358,35 +3946,35 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="10.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="16" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="16" width="11.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="16.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="16" width="19.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="16" width="9.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="16" width="15.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="6.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="16" width="11.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="16" width="5.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="16" width="29.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="16" width="9.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="16" width="78.7109375" collapsed="true"/>
-    <col min="18" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="18.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15" style="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="5.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="78.7109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="15" t="s">
         <v>206</v>
       </c>
@@ -5439,7 +4027,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="31" t="s">
         <v>257</v>
       </c>
@@ -5492,7 +4080,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="33" t="s">
         <v>293</v>
       </c>
@@ -5545,7 +4133,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="23" t="s">
         <v>293</v>
       </c>
@@ -5598,7 +4186,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
         <v>205</v>
       </c>
@@ -5651,7 +4239,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="29" t="s">
         <v>257</v>
       </c>
@@ -5704,7 +4292,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="23" t="s">
         <v>293</v>
       </c>
@@ -5757,7 +4345,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="31" t="s">
         <v>205</v>
       </c>
@@ -5810,7 +4398,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="33" t="s">
         <v>257</v>
       </c>
@@ -5863,7 +4451,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="34" t="s">
         <v>293</v>
       </c>
@@ -5916,7 +4504,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
         <v>205</v>
       </c>
@@ -5975,37 +4563,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S309"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H2" sqref="H2:H149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" style="2" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="255.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
-    <col min="18" max="19" style="2" width="9.140625" collapsed="true"/>
-    <col min="20" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="2" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="255" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6027,38 +4609,38 @@
       <c r="G1" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="H1" t="s" s="60">
+      <c r="H1" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s" s="61">
+      <c r="K1" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="J1" t="s" s="62">
+      <c r="N1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="K1" t="s" s="63">
+      <c r="O1" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="L1" t="s" s="64">
+      <c r="P1" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="M1" t="s" s="65">
+      <c r="Q1" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="N1" t="s" s="66">
-        <v>356</v>
-      </c>
-      <c r="O1" t="s" s="67">
-        <v>357</v>
-      </c>
-      <c r="P1" t="s" s="68">
-        <v>358</v>
-      </c>
-      <c r="Q1" t="s" s="69">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -6107,7 +4689,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -6156,7 +4738,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -6177,7 +4759,7 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" t="s">
-        <v>497</v>
+        <v>374</v>
       </c>
       <c r="I4" t="s">
         <v>268</v>
@@ -6207,7 +4789,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -6228,7 +4810,7 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" t="s">
-        <v>498</v>
+        <v>375</v>
       </c>
       <c r="I5" t="s">
         <v>268</v>
@@ -6258,7 +4840,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -6277,7 +4859,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" t="s">
-        <v>499</v>
+        <v>376</v>
       </c>
       <c r="I6" t="s">
         <v>268</v>
@@ -6307,7 +4889,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -6324,7 +4906,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="I7" t="s">
         <v>268</v>
@@ -6354,7 +4936,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
@@ -6371,7 +4953,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="I8" t="s">
         <v>268</v>
@@ -6401,7 +4983,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -6418,7 +5000,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" t="s">
-        <v>501</v>
+        <v>377</v>
       </c>
       <c r="I9" t="s">
         <v>268</v>
@@ -6448,7 +5030,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -6467,7 +5049,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" t="s">
-        <v>502</v>
+        <v>378</v>
       </c>
       <c r="I10" t="s">
         <v>268</v>
@@ -6497,7 +5079,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
@@ -6518,7 +5100,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" t="s">
-        <v>503</v>
+        <v>379</v>
       </c>
       <c r="I11" t="s">
         <v>268</v>
@@ -6548,7 +5130,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -6597,7 +5179,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -6616,7 +5198,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" t="s">
-        <v>504</v>
+        <v>380</v>
       </c>
       <c r="I13" t="s">
         <v>268</v>
@@ -6646,7 +5228,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -6695,7 +5277,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
@@ -6742,16 +5324,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="56"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="11" t="s">
         <v>252</v>
       </c>
@@ -6769,9 +5351,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" t="s">
-        <v>345</v>
-      </c>
+      <c r="H17"/>
       <c r="I17" t="s">
         <v>268</v>
       </c>
@@ -6800,7 +5380,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="11" t="s">
         <v>252</v>
       </c>
@@ -6818,9 +5398,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" t="s">
-        <v>345</v>
-      </c>
+      <c r="H18"/>
       <c r="I18" t="s">
         <v>268</v>
       </c>
@@ -6849,7 +5427,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="11" t="s">
         <v>252</v>
       </c>
@@ -6869,9 +5447,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" t="s">
-        <v>505</v>
-      </c>
+      <c r="H19"/>
       <c r="I19" t="s">
         <v>268</v>
       </c>
@@ -6900,7 +5476,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="11" t="s">
         <v>252</v>
       </c>
@@ -6920,9 +5496,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" t="s">
-        <v>506</v>
-      </c>
+      <c r="H20"/>
       <c r="I20" t="s">
         <v>268</v>
       </c>
@@ -6951,7 +5525,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="11" t="s">
         <v>252</v>
       </c>
@@ -6969,9 +5543,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" t="s">
-        <v>507</v>
-      </c>
+      <c r="H21"/>
       <c r="I21" t="s">
         <v>268</v>
       </c>
@@ -7000,7 +5572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="11" t="s">
         <v>252</v>
       </c>
@@ -7016,9 +5588,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" t="s">
-        <v>500</v>
-      </c>
+      <c r="H22"/>
       <c r="I22" t="s">
         <v>268</v>
       </c>
@@ -7047,7 +5617,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="11" t="s">
         <v>252</v>
       </c>
@@ -7063,9 +5633,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" t="s">
-        <v>500</v>
-      </c>
+      <c r="H23"/>
       <c r="I23" t="s">
         <v>268</v>
       </c>
@@ -7094,7 +5662,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="11" t="s">
         <v>252</v>
       </c>
@@ -7110,9 +5678,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" t="s">
-        <v>508</v>
-      </c>
+      <c r="H24"/>
       <c r="I24" t="s">
         <v>268</v>
       </c>
@@ -7141,7 +5707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="11" t="s">
         <v>252</v>
       </c>
@@ -7159,9 +5725,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" t="s">
-        <v>509</v>
-      </c>
+      <c r="H25"/>
       <c r="I25" t="s">
         <v>268</v>
       </c>
@@ -7190,7 +5754,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="11" t="s">
         <v>252</v>
       </c>
@@ -7210,9 +5774,7 @@
         <v>190</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" t="s">
-        <v>510</v>
-      </c>
+      <c r="H26"/>
       <c r="I26" t="s">
         <v>268</v>
       </c>
@@ -7241,7 +5803,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="11" t="s">
         <v>252</v>
       </c>
@@ -7259,9 +5821,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" t="s">
-        <v>345</v>
-      </c>
+      <c r="H27"/>
       <c r="I27" t="s">
         <v>268</v>
       </c>
@@ -7290,7 +5850,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="11" t="s">
         <v>252</v>
       </c>
@@ -7308,9 +5868,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" t="s">
-        <v>511</v>
-      </c>
+      <c r="H28"/>
       <c r="I28" t="s">
         <v>268</v>
       </c>
@@ -7339,7 +5897,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="11" t="s">
         <v>252</v>
       </c>
@@ -7357,9 +5915,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" t="s">
-        <v>361</v>
-      </c>
+      <c r="H29"/>
       <c r="I29" t="s">
         <v>268</v>
       </c>
@@ -7388,7 +5944,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="11" t="s">
         <v>252</v>
       </c>
@@ -7406,9 +5962,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" t="s">
-        <v>345</v>
-      </c>
+      <c r="H30"/>
       <c r="I30" t="s">
         <v>268</v>
       </c>
@@ -7437,7 +5991,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="11" t="s">
         <v>252</v>
       </c>
@@ -7453,9 +6007,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" t="s">
-        <v>345</v>
-      </c>
+      <c r="H31"/>
       <c r="I31" t="s">
         <v>268</v>
       </c>
@@ -7484,16 +6036,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="46" t="s">
         <v>264</v>
       </c>
@@ -7511,9 +6063,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="46"/>
-      <c r="H33" t="s">
-        <v>268</v>
-      </c>
+      <c r="H33"/>
       <c r="I33" t="s">
         <v>345</v>
       </c>
@@ -7539,7 +6089,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="46" t="s">
         <v>264</v>
       </c>
@@ -7557,9 +6107,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="46"/>
-      <c r="H34" t="s">
-        <v>268</v>
-      </c>
+      <c r="H34"/>
       <c r="I34" t="s">
         <v>345</v>
       </c>
@@ -7585,7 +6133,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="46" t="s">
         <v>264</v>
       </c>
@@ -7605,11 +6153,9 @@
         <v>14</v>
       </c>
       <c r="G35" s="46"/>
-      <c r="H35" t="s">
-        <v>268</v>
-      </c>
+      <c r="H35"/>
       <c r="I35" t="s">
-        <v>512</v>
+        <v>364</v>
       </c>
       <c r="J35" t="s">
         <v>268</v>
@@ -7633,7 +6179,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="46" t="s">
         <v>264</v>
       </c>
@@ -7653,11 +6199,9 @@
         <v>15</v>
       </c>
       <c r="G36" s="46"/>
-      <c r="H36" t="s">
-        <v>268</v>
-      </c>
+      <c r="H36"/>
       <c r="I36" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
       <c r="J36" t="s">
         <v>268</v>
@@ -7681,7 +6225,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="46" t="s">
         <v>264</v>
       </c>
@@ -7699,11 +6243,9 @@
       </c>
       <c r="F37" s="46"/>
       <c r="G37" s="46"/>
-      <c r="H37" t="s">
-        <v>268</v>
-      </c>
+      <c r="H37"/>
       <c r="I37" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
         <v>268</v>
@@ -7727,7 +6269,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="46" t="s">
         <v>264</v>
       </c>
@@ -7743,11 +6285,9 @@
       <c r="E38" s="46"/>
       <c r="F38" s="46"/>
       <c r="G38" s="46"/>
-      <c r="H38" t="s">
-        <v>268</v>
-      </c>
+      <c r="H38"/>
       <c r="I38" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="J38" t="s">
         <v>268</v>
@@ -7771,7 +6311,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="46" t="s">
         <v>264</v>
       </c>
@@ -7787,11 +6327,9 @@
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="46"/>
-      <c r="H39" t="s">
-        <v>268</v>
-      </c>
+      <c r="H39"/>
       <c r="I39" t="s">
-        <v>500</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
         <v>268</v>
@@ -7815,7 +6353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="46" t="s">
         <v>264</v>
       </c>
@@ -7831,11 +6369,9 @@
       <c r="E40" s="46"/>
       <c r="F40" s="46"/>
       <c r="G40" s="46"/>
-      <c r="H40" t="s">
-        <v>268</v>
-      </c>
+      <c r="H40"/>
       <c r="I40" t="s">
-        <v>515</v>
+        <v>367</v>
       </c>
       <c r="J40" t="s">
         <v>268</v>
@@ -7859,7 +6395,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="46" t="s">
         <v>264</v>
       </c>
@@ -7877,11 +6413,9 @@
       </c>
       <c r="F41" s="46"/>
       <c r="G41" s="46"/>
-      <c r="H41" t="s">
-        <v>268</v>
-      </c>
+      <c r="H41"/>
       <c r="I41" t="s">
-        <v>516</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
         <v>268</v>
@@ -7905,7 +6439,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="46" t="s">
         <v>264</v>
       </c>
@@ -7925,11 +6459,9 @@
         <v>190</v>
       </c>
       <c r="G42" s="46"/>
-      <c r="H42" t="s">
-        <v>268</v>
-      </c>
+      <c r="H42"/>
       <c r="I42" t="s">
-        <v>517</v>
+        <v>369</v>
       </c>
       <c r="J42" t="s">
         <v>268</v>
@@ -7953,7 +6485,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="46" t="s">
         <v>264</v>
       </c>
@@ -7971,9 +6503,7 @@
       </c>
       <c r="F43" s="46"/>
       <c r="G43" s="46"/>
-      <c r="H43" t="s">
-        <v>268</v>
-      </c>
+      <c r="H43"/>
       <c r="I43" t="s">
         <v>345</v>
       </c>
@@ -7999,7 +6529,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="46" t="s">
         <v>264</v>
       </c>
@@ -8017,11 +6547,9 @@
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
-      <c r="H44" t="s">
-        <v>268</v>
-      </c>
+      <c r="H44"/>
       <c r="I44" t="s">
-        <v>518</v>
+        <v>370</v>
       </c>
       <c r="J44" t="s">
         <v>268</v>
@@ -8045,7 +6573,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="46" t="s">
         <v>264</v>
       </c>
@@ -8063,11 +6591,9 @@
       </c>
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
-      <c r="H45" t="s">
-        <v>268</v>
-      </c>
+      <c r="H45"/>
       <c r="I45" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
       <c r="J45" t="s">
         <v>268</v>
@@ -8091,7 +6617,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="46" t="s">
         <v>264</v>
       </c>
@@ -8111,11 +6637,9 @@
         <v>190</v>
       </c>
       <c r="G46" s="46"/>
-      <c r="H46" t="s">
-        <v>268</v>
-      </c>
+      <c r="H46"/>
       <c r="I46" t="s">
-        <v>520</v>
+        <v>372</v>
       </c>
       <c r="J46" t="s">
         <v>268</v>
@@ -8139,7 +6663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="46" t="s">
         <v>264</v>
       </c>
@@ -8157,11 +6681,9 @@
       </c>
       <c r="F47" s="46"/>
       <c r="G47" s="46"/>
-      <c r="H47" t="s">
-        <v>268</v>
-      </c>
+      <c r="H47"/>
       <c r="I47" t="s">
-        <v>521</v>
+        <v>373</v>
       </c>
       <c r="J47" t="s">
         <v>268</v>
@@ -8185,7 +6707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="46" t="s">
         <v>264</v>
       </c>
@@ -8203,9 +6725,7 @@
       </c>
       <c r="F48" s="46"/>
       <c r="G48" s="46"/>
-      <c r="H48" t="s">
-        <v>268</v>
-      </c>
+      <c r="H48"/>
       <c r="I48" t="s">
         <v>345</v>
       </c>
@@ -8231,7 +6751,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="46" t="s">
         <v>264</v>
       </c>
@@ -8247,9 +6767,7 @@
       <c r="E49" s="46"/>
       <c r="F49" s="46"/>
       <c r="G49" s="46"/>
-      <c r="H49" t="s">
-        <v>268</v>
-      </c>
+      <c r="H49"/>
       <c r="I49" t="s">
         <v>345</v>
       </c>
@@ -8275,16 +6793,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="69"/>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="11" t="s">
         <v>236</v>
       </c>
@@ -8302,9 +6820,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="11"/>
-      <c r="H51" t="s">
-        <v>268</v>
-      </c>
+      <c r="H51"/>
       <c r="I51" t="s">
         <v>268</v>
       </c>
@@ -8330,7 +6846,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="11" t="s">
         <v>236</v>
       </c>
@@ -8348,9 +6864,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="11"/>
-      <c r="H52" t="s">
-        <v>268</v>
-      </c>
+      <c r="H52"/>
       <c r="I52" t="s">
         <v>268</v>
       </c>
@@ -8376,7 +6890,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="11" t="s">
         <v>236</v>
       </c>
@@ -8396,9 +6910,7 @@
         <v>14</v>
       </c>
       <c r="G53" s="11"/>
-      <c r="H53" t="s">
-        <v>268</v>
-      </c>
+      <c r="H53"/>
       <c r="I53" t="s">
         <v>268</v>
       </c>
@@ -8424,7 +6936,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="11" t="s">
         <v>236</v>
       </c>
@@ -8444,9 +6956,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="11"/>
-      <c r="H54" t="s">
-        <v>268</v>
-      </c>
+      <c r="H54"/>
       <c r="I54" t="s">
         <v>268</v>
       </c>
@@ -8472,7 +6982,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="11" t="s">
         <v>236</v>
       </c>
@@ -8490,9 +7000,7 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" t="s">
-        <v>268</v>
-      </c>
+      <c r="H55"/>
       <c r="I55" t="s">
         <v>268</v>
       </c>
@@ -8518,7 +7026,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="11" t="s">
         <v>236</v>
       </c>
@@ -8534,9 +7042,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" t="s">
-        <v>268</v>
-      </c>
+      <c r="H56"/>
       <c r="I56" t="s">
         <v>268</v>
       </c>
@@ -8562,7 +7068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="11" t="s">
         <v>236</v>
       </c>
@@ -8578,9 +7084,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" t="s">
-        <v>268</v>
-      </c>
+      <c r="H57"/>
       <c r="I57" t="s">
         <v>268</v>
       </c>
@@ -8606,7 +7110,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="11" t="s">
         <v>236</v>
       </c>
@@ -8622,9 +7126,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" t="s">
-        <v>268</v>
-      </c>
+      <c r="H58"/>
       <c r="I58" t="s">
         <v>268</v>
       </c>
@@ -8650,7 +7152,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="11" t="s">
         <v>236</v>
       </c>
@@ -8668,9 +7170,7 @@
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" t="s">
-        <v>268</v>
-      </c>
+      <c r="H59"/>
       <c r="I59" t="s">
         <v>268</v>
       </c>
@@ -8696,7 +7196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="11" t="s">
         <v>236</v>
       </c>
@@ -8716,9 +7216,7 @@
         <v>190</v>
       </c>
       <c r="G60" s="11"/>
-      <c r="H60" t="s">
-        <v>268</v>
-      </c>
+      <c r="H60"/>
       <c r="I60" t="s">
         <v>268</v>
       </c>
@@ -8744,7 +7242,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="11" t="s">
         <v>236</v>
       </c>
@@ -8762,9 +7260,7 @@
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" t="s">
-        <v>268</v>
-      </c>
+      <c r="H61"/>
       <c r="I61" t="s">
         <v>268</v>
       </c>
@@ -8790,7 +7286,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="11" t="s">
         <v>236</v>
       </c>
@@ -8808,9 +7304,7 @@
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" t="s">
-        <v>268</v>
-      </c>
+      <c r="H62"/>
       <c r="I62" t="s">
         <v>268</v>
       </c>
@@ -8821,7 +7315,7 @@
         <v>268</v>
       </c>
       <c r="L62" t="s">
-        <v>475</v>
+        <v>357</v>
       </c>
       <c r="M62" t="s">
         <v>268</v>
@@ -8836,7 +7330,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="11" t="s">
         <v>236</v>
       </c>
@@ -8856,9 +7350,7 @@
         <v>269</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" t="s">
-        <v>268</v>
-      </c>
+      <c r="H63"/>
       <c r="I63" t="s">
         <v>268</v>
       </c>
@@ -8869,7 +7361,7 @@
         <v>268</v>
       </c>
       <c r="L63" t="s">
-        <v>476</v>
+        <v>358</v>
       </c>
       <c r="M63" t="s">
         <v>268</v>
@@ -8884,7 +7376,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="11" t="s">
         <v>236</v>
       </c>
@@ -8902,9 +7394,7 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" t="s">
-        <v>268</v>
-      </c>
+      <c r="H64"/>
       <c r="I64" t="s">
         <v>268</v>
       </c>
@@ -8915,7 +7405,7 @@
         <v>268</v>
       </c>
       <c r="L64" t="s">
-        <v>477</v>
+        <v>359</v>
       </c>
       <c r="M64" t="s">
         <v>268</v>
@@ -8930,7 +7420,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="11" t="s">
         <v>236</v>
       </c>
@@ -8948,9 +7438,7 @@
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" t="s">
-        <v>268</v>
-      </c>
+      <c r="H65"/>
       <c r="I65" t="s">
         <v>268</v>
       </c>
@@ -8976,7 +7464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="11" t="s">
         <v>236</v>
       </c>
@@ -8992,9 +7480,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" t="s">
-        <v>268</v>
-      </c>
+      <c r="H66"/>
       <c r="I66" t="s">
         <v>268</v>
       </c>
@@ -9020,16 +7506,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="59"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
+      <c r="A67" s="67"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="69"/>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="45" t="s">
         <v>248</v>
       </c>
@@ -9047,9 +7533,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="45"/>
-      <c r="H68" t="s">
-        <v>268</v>
-      </c>
+      <c r="H68"/>
       <c r="I68" t="s">
         <v>345</v>
       </c>
@@ -9075,7 +7559,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="45" t="s">
         <v>248</v>
       </c>
@@ -9093,9 +7577,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="45"/>
-      <c r="H69" t="s">
-        <v>268</v>
-      </c>
+      <c r="H69"/>
       <c r="I69" t="s">
         <v>345</v>
       </c>
@@ -9121,7 +7603,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="45" t="s">
         <v>248</v>
       </c>
@@ -9141,9 +7623,7 @@
         <v>14</v>
       </c>
       <c r="G70" s="45"/>
-      <c r="H70" t="s">
-        <v>268</v>
-      </c>
+      <c r="H70"/>
       <c r="I70" t="s">
         <v>345</v>
       </c>
@@ -9169,7 +7649,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="45" t="s">
         <v>248</v>
       </c>
@@ -9189,9 +7669,7 @@
         <v>15</v>
       </c>
       <c r="G71" s="45"/>
-      <c r="H71" t="s">
-        <v>268</v>
-      </c>
+      <c r="H71"/>
       <c r="I71" t="s">
         <v>345</v>
       </c>
@@ -9217,7 +7695,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="45" t="s">
         <v>248</v>
       </c>
@@ -9235,9 +7713,7 @@
       </c>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
-      <c r="H72" t="s">
-        <v>268</v>
-      </c>
+      <c r="H72"/>
       <c r="I72" t="s">
         <v>345</v>
       </c>
@@ -9263,7 +7739,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="45" t="s">
         <v>248</v>
       </c>
@@ -9279,9 +7755,7 @@
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
-      <c r="H73" t="s">
-        <v>268</v>
-      </c>
+      <c r="H73"/>
       <c r="I73" t="s">
         <v>345</v>
       </c>
@@ -9307,7 +7781,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="45" t="s">
         <v>248</v>
       </c>
@@ -9323,9 +7797,7 @@
       <c r="E74" s="45"/>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
-      <c r="H74" t="s">
-        <v>268</v>
-      </c>
+      <c r="H74"/>
       <c r="I74" t="s">
         <v>345</v>
       </c>
@@ -9351,7 +7823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="A75" s="45" t="s">
         <v>248</v>
       </c>
@@ -9367,11 +7839,9 @@
       <c r="E75" s="45"/>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
-      <c r="H75" t="s">
-        <v>268</v>
-      </c>
+      <c r="H75"/>
       <c r="I75" t="s">
-        <v>478</v>
+        <v>360</v>
       </c>
       <c r="J75" t="s">
         <v>268</v>
@@ -9395,7 +7865,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="A76" s="45" t="s">
         <v>248</v>
       </c>
@@ -9413,9 +7883,7 @@
       </c>
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
-      <c r="H76" t="s">
-        <v>268</v>
-      </c>
+      <c r="H76"/>
       <c r="I76" t="s">
         <v>345</v>
       </c>
@@ -9441,7 +7909,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="A77" s="45" t="s">
         <v>248</v>
       </c>
@@ -9461,9 +7929,7 @@
         <v>190</v>
       </c>
       <c r="G77" s="45"/>
-      <c r="H77" t="s">
-        <v>268</v>
-      </c>
+      <c r="H77"/>
       <c r="I77" t="s">
         <v>345</v>
       </c>
@@ -9489,7 +7955,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="A78" s="45" t="s">
         <v>248</v>
       </c>
@@ -9507,9 +7973,7 @@
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
-      <c r="H78" t="s">
-        <v>268</v>
-      </c>
+      <c r="H78"/>
       <c r="I78" t="s">
         <v>345</v>
       </c>
@@ -9535,7 +7999,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="A79" s="45" t="s">
         <v>248</v>
       </c>
@@ -9553,11 +8017,9 @@
       </c>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
-      <c r="H79" t="s">
-        <v>268</v>
-      </c>
+      <c r="H79"/>
       <c r="I79" t="s">
-        <v>479</v>
+        <v>361</v>
       </c>
       <c r="J79" t="s">
         <v>268</v>
@@ -9581,7 +8043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="A80" s="45" t="s">
         <v>248</v>
       </c>
@@ -9599,11 +8061,9 @@
       </c>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
-      <c r="H80" t="s">
-        <v>268</v>
-      </c>
+      <c r="H80"/>
       <c r="I80" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="J80" t="s">
         <v>268</v>
@@ -9627,7 +8087,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="45" t="s">
         <v>248</v>
       </c>
@@ -9645,11 +8105,9 @@
       </c>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
-      <c r="H81" t="s">
-        <v>268</v>
-      </c>
+      <c r="H81"/>
       <c r="I81" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="J81" t="s">
         <v>268</v>
@@ -9673,7 +8131,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="45" t="s">
         <v>248</v>
       </c>
@@ -9691,9 +8149,7 @@
       </c>
       <c r="F82" s="45"/>
       <c r="G82" s="45"/>
-      <c r="H82" t="s">
-        <v>268</v>
-      </c>
+      <c r="H82"/>
       <c r="I82" t="s">
         <v>345</v>
       </c>
@@ -9719,7 +8175,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="45" t="s">
         <v>248</v>
       </c>
@@ -9735,9 +8191,7 @@
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
       <c r="G83" s="45"/>
-      <c r="H83" t="s">
-        <v>268</v>
-      </c>
+      <c r="H83"/>
       <c r="I83" t="s">
         <v>345</v>
       </c>
@@ -9763,16 +8217,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="59"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
+      <c r="A84" s="67"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="69"/>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="44" t="s">
         <v>244</v>
       </c>
@@ -9790,9 +8244,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="44"/>
-      <c r="H85" t="s">
-        <v>345</v>
-      </c>
+      <c r="H85"/>
       <c r="I85" t="s">
         <v>268</v>
       </c>
@@ -9821,7 +8273,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="44" t="s">
         <v>244</v>
       </c>
@@ -9839,9 +8291,7 @@
         <v>11</v>
       </c>
       <c r="G86" s="44"/>
-      <c r="H86" t="s">
-        <v>345</v>
-      </c>
+      <c r="H86"/>
       <c r="I86" t="s">
         <v>268</v>
       </c>
@@ -9870,7 +8320,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="44" t="s">
         <v>244</v>
       </c>
@@ -9890,9 +8340,7 @@
         <v>14</v>
       </c>
       <c r="G87" s="44"/>
-      <c r="H87" t="s">
-        <v>345</v>
-      </c>
+      <c r="H87"/>
       <c r="I87" t="s">
         <v>268</v>
       </c>
@@ -9921,7 +8369,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88" s="44" t="s">
         <v>244</v>
       </c>
@@ -9941,9 +8389,7 @@
         <v>15</v>
       </c>
       <c r="G88" s="44"/>
-      <c r="H88" t="s">
-        <v>345</v>
-      </c>
+      <c r="H88"/>
       <c r="I88" t="s">
         <v>268</v>
       </c>
@@ -9972,7 +8418,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89" s="44" t="s">
         <v>244</v>
       </c>
@@ -9990,9 +8436,7 @@
       </c>
       <c r="F89" s="44"/>
       <c r="G89" s="44"/>
-      <c r="H89" t="s">
-        <v>345</v>
-      </c>
+      <c r="H89"/>
       <c r="I89" t="s">
         <v>268</v>
       </c>
@@ -10021,7 +8465,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" s="44" t="s">
         <v>244</v>
       </c>
@@ -10037,9 +8481,7 @@
       <c r="E90" s="44"/>
       <c r="F90" s="44"/>
       <c r="G90" s="44"/>
-      <c r="H90" t="s">
-        <v>345</v>
-      </c>
+      <c r="H90"/>
       <c r="I90" t="s">
         <v>268</v>
       </c>
@@ -10068,7 +8510,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" s="44" t="s">
         <v>244</v>
       </c>
@@ -10084,9 +8526,7 @@
       <c r="E91" s="44"/>
       <c r="F91" s="44"/>
       <c r="G91" s="44"/>
-      <c r="H91" t="s">
-        <v>345</v>
-      </c>
+      <c r="H91"/>
       <c r="I91" t="s">
         <v>268</v>
       </c>
@@ -10115,7 +8555,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92" s="44" t="s">
         <v>244</v>
       </c>
@@ -10131,9 +8571,7 @@
       <c r="E92" s="44"/>
       <c r="F92" s="44"/>
       <c r="G92" s="44"/>
-      <c r="H92" t="s">
-        <v>480</v>
-      </c>
+      <c r="H92"/>
       <c r="I92" t="s">
         <v>268</v>
       </c>
@@ -10162,7 +8600,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" s="44" t="s">
         <v>244</v>
       </c>
@@ -10180,9 +8618,7 @@
       </c>
       <c r="F93" s="44"/>
       <c r="G93" s="44"/>
-      <c r="H93" t="s">
-        <v>345</v>
-      </c>
+      <c r="H93"/>
       <c r="I93" t="s">
         <v>268</v>
       </c>
@@ -10211,7 +8647,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94" s="44" t="s">
         <v>244</v>
       </c>
@@ -10231,9 +8667,7 @@
         <v>190</v>
       </c>
       <c r="G94" s="44"/>
-      <c r="H94" t="s">
-        <v>345</v>
-      </c>
+      <c r="H94"/>
       <c r="I94" t="s">
         <v>268</v>
       </c>
@@ -10262,7 +8696,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95" s="44" t="s">
         <v>244</v>
       </c>
@@ -10280,9 +8714,7 @@
       </c>
       <c r="F95" s="44"/>
       <c r="G95" s="44"/>
-      <c r="H95" t="s">
-        <v>345</v>
-      </c>
+      <c r="H95"/>
       <c r="I95" t="s">
         <v>268</v>
       </c>
@@ -10311,7 +8743,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" s="44" t="s">
         <v>244</v>
       </c>
@@ -10329,9 +8761,7 @@
       </c>
       <c r="F96" s="44"/>
       <c r="G96" s="44"/>
-      <c r="H96" t="s">
-        <v>481</v>
-      </c>
+      <c r="H96"/>
       <c r="I96" t="s">
         <v>268</v>
       </c>
@@ -10360,7 +8790,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="A97" s="44" t="s">
         <v>244</v>
       </c>
@@ -10378,9 +8808,7 @@
       </c>
       <c r="F97" s="44"/>
       <c r="G97" s="44"/>
-      <c r="H97" t="s">
-        <v>482</v>
-      </c>
+      <c r="H97"/>
       <c r="I97" t="s">
         <v>268</v>
       </c>
@@ -10409,7 +8837,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98" s="44" t="s">
         <v>244</v>
       </c>
@@ -10427,9 +8855,7 @@
       </c>
       <c r="F98" s="44"/>
       <c r="G98" s="44"/>
-      <c r="H98" t="s">
-        <v>345</v>
-      </c>
+      <c r="H98"/>
       <c r="I98" t="s">
         <v>268</v>
       </c>
@@ -10458,7 +8884,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99" s="44" t="s">
         <v>244</v>
       </c>
@@ -10476,9 +8902,7 @@
       </c>
       <c r="F99" s="44"/>
       <c r="G99" s="44"/>
-      <c r="H99" t="s">
-        <v>483</v>
-      </c>
+      <c r="H99"/>
       <c r="I99" t="s">
         <v>268</v>
       </c>
@@ -10507,7 +8931,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100" s="44" t="s">
         <v>244</v>
       </c>
@@ -10527,9 +8951,7 @@
         <v>191</v>
       </c>
       <c r="G100" s="44"/>
-      <c r="H100" t="s">
-        <v>484</v>
-      </c>
+      <c r="H100"/>
       <c r="I100" t="s">
         <v>268</v>
       </c>
@@ -10558,7 +8980,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101" s="44" t="s">
         <v>244</v>
       </c>
@@ -10576,9 +8998,7 @@
       </c>
       <c r="F101" s="44"/>
       <c r="G101" s="44"/>
-      <c r="H101" t="s">
-        <v>485</v>
-      </c>
+      <c r="H101"/>
       <c r="I101" t="s">
         <v>268</v>
       </c>
@@ -10607,7 +9027,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="A102" s="44" t="s">
         <v>244</v>
       </c>
@@ -10627,9 +9047,7 @@
         <v>193</v>
       </c>
       <c r="G102" s="44"/>
-      <c r="H102" t="s">
-        <v>486</v>
-      </c>
+      <c r="H102"/>
       <c r="I102" t="s">
         <v>268</v>
       </c>
@@ -10658,7 +9076,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17">
       <c r="A103" s="44" t="s">
         <v>244</v>
       </c>
@@ -10676,9 +9094,7 @@
       </c>
       <c r="F103" s="44"/>
       <c r="G103" s="44"/>
-      <c r="H103" t="s">
-        <v>487</v>
-      </c>
+      <c r="H103"/>
       <c r="I103" t="s">
         <v>268</v>
       </c>
@@ -10707,7 +9123,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104" s="44" t="s">
         <v>244</v>
       </c>
@@ -10727,9 +9143,7 @@
         <v>194</v>
       </c>
       <c r="G104" s="44"/>
-      <c r="H104" t="s">
-        <v>488</v>
-      </c>
+      <c r="H104"/>
       <c r="I104" t="s">
         <v>268</v>
       </c>
@@ -10758,7 +9172,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="A105" s="44" t="s">
         <v>244</v>
       </c>
@@ -10776,9 +9190,7 @@
       </c>
       <c r="F105" s="44"/>
       <c r="G105" s="44"/>
-      <c r="H105" t="s">
-        <v>489</v>
-      </c>
+      <c r="H105"/>
       <c r="I105" t="s">
         <v>268</v>
       </c>
@@ -10807,7 +9219,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17">
       <c r="A106" s="44" t="s">
         <v>244</v>
       </c>
@@ -10827,9 +9239,7 @@
         <v>195</v>
       </c>
       <c r="G106" s="44"/>
-      <c r="H106" t="s">
-        <v>490</v>
-      </c>
+      <c r="H106"/>
       <c r="I106" t="s">
         <v>268</v>
       </c>
@@ -10858,7 +9268,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17">
       <c r="A107" s="44" t="s">
         <v>244</v>
       </c>
@@ -10876,9 +9286,7 @@
       </c>
       <c r="F107" s="44"/>
       <c r="G107" s="44"/>
-      <c r="H107" t="s">
-        <v>491</v>
-      </c>
+      <c r="H107"/>
       <c r="I107" t="s">
         <v>268</v>
       </c>
@@ -10907,7 +9315,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108" s="44" t="s">
         <v>244</v>
       </c>
@@ -10927,9 +9335,7 @@
         <v>196</v>
       </c>
       <c r="G108" s="44"/>
-      <c r="H108" t="s">
-        <v>492</v>
-      </c>
+      <c r="H108"/>
       <c r="I108" t="s">
         <v>268</v>
       </c>
@@ -10958,7 +9364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="A109" s="44" t="s">
         <v>244</v>
       </c>
@@ -10978,9 +9384,7 @@
         <v>201</v>
       </c>
       <c r="G109" s="44"/>
-      <c r="H109" t="s">
-        <v>493</v>
-      </c>
+      <c r="H109"/>
       <c r="I109" t="s">
         <v>268</v>
       </c>
@@ -11009,7 +9413,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
       <c r="A110" s="44" t="s">
         <v>244</v>
       </c>
@@ -11027,9 +9431,7 @@
       </c>
       <c r="F110" s="44"/>
       <c r="G110" s="44"/>
-      <c r="H110" t="s">
-        <v>494</v>
-      </c>
+      <c r="H110"/>
       <c r="I110" t="s">
         <v>268</v>
       </c>
@@ -11058,7 +9460,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17">
       <c r="A111" s="44" t="s">
         <v>244</v>
       </c>
@@ -11078,9 +9480,7 @@
         <v>197</v>
       </c>
       <c r="G111" s="44"/>
-      <c r="H111" t="s">
-        <v>495</v>
-      </c>
+      <c r="H111"/>
       <c r="I111" t="s">
         <v>268</v>
       </c>
@@ -11109,7 +9509,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17">
       <c r="A112" s="44" t="s">
         <v>244</v>
       </c>
@@ -11127,9 +9527,7 @@
       </c>
       <c r="F112" s="44"/>
       <c r="G112" s="44"/>
-      <c r="H112" t="s">
-        <v>496</v>
-      </c>
+      <c r="H112"/>
       <c r="I112" t="s">
         <v>268</v>
       </c>
@@ -11158,7 +9556,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17">
       <c r="A113" s="44" t="s">
         <v>244</v>
       </c>
@@ -11174,9 +9572,7 @@
       </c>
       <c r="F113" s="44"/>
       <c r="G113" s="44"/>
-      <c r="H113" t="s">
-        <v>345</v>
-      </c>
+      <c r="H113"/>
       <c r="I113" t="s">
         <v>268</v>
       </c>
@@ -11205,7 +9601,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17">
       <c r="A114" s="44" t="s">
         <v>244</v>
       </c>
@@ -11219,9 +9615,7 @@
       <c r="E114" s="44"/>
       <c r="F114" s="44"/>
       <c r="G114" s="44"/>
-      <c r="H114" t="s">
-        <v>345</v>
-      </c>
+      <c r="H114"/>
       <c r="I114" t="s">
         <v>268</v>
       </c>
@@ -11250,16 +9644,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="59"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17">
+      <c r="A115" s="67"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="69"/>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="48" t="s">
         <v>245</v>
       </c>
@@ -11278,7 +9672,7 @@
       </c>
       <c r="G116" s="48"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17">
       <c r="A117" s="48" t="s">
         <v>245</v>
       </c>
@@ -11297,7 +9691,7 @@
       </c>
       <c r="G117" s="48"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17">
       <c r="A118" s="48" t="s">
         <v>245</v>
       </c>
@@ -11318,7 +9712,7 @@
       </c>
       <c r="G118" s="48"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17">
       <c r="A119" s="48" t="s">
         <v>245</v>
       </c>
@@ -11339,7 +9733,7 @@
       </c>
       <c r="G119" s="48"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17">
       <c r="A120" s="48" t="s">
         <v>245</v>
       </c>
@@ -11358,7 +9752,7 @@
       <c r="F120" s="48"/>
       <c r="G120" s="48"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17">
       <c r="A121" s="48" t="s">
         <v>245</v>
       </c>
@@ -11375,7 +9769,7 @@
       <c r="F121" s="48"/>
       <c r="G121" s="48"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17">
       <c r="A122" s="48" t="s">
         <v>245</v>
       </c>
@@ -11392,7 +9786,7 @@
       <c r="F122" s="48"/>
       <c r="G122" s="48"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17">
       <c r="A123" s="48" t="s">
         <v>245</v>
       </c>
@@ -11409,7 +9803,7 @@
       <c r="F123" s="48"/>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17">
       <c r="A124" s="48" t="s">
         <v>245</v>
       </c>
@@ -11428,7 +9822,7 @@
       <c r="F124" s="48"/>
       <c r="G124" s="48"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17">
       <c r="A125" s="48" t="s">
         <v>245</v>
       </c>
@@ -11449,7 +9843,7 @@
       </c>
       <c r="G125" s="48"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17">
       <c r="A126" s="48" t="s">
         <v>245</v>
       </c>
@@ -11468,7 +9862,7 @@
       <c r="F126" s="48"/>
       <c r="G126" s="48"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17">
       <c r="A127" s="48" t="s">
         <v>245</v>
       </c>
@@ -11487,7 +9881,7 @@
       <c r="F127" s="48"/>
       <c r="G127" s="48"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17">
       <c r="A128" s="48" t="s">
         <v>245</v>
       </c>
@@ -11506,7 +9900,7 @@
       <c r="F128" s="48"/>
       <c r="G128" s="48"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="48" t="s">
         <v>245</v>
       </c>
@@ -11525,7 +9919,7 @@
       <c r="F129" s="48"/>
       <c r="G129" s="48"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="48" t="s">
         <v>245</v>
       </c>
@@ -11544,7 +9938,7 @@
       <c r="F130" s="48"/>
       <c r="G130" s="48"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="48" t="s">
         <v>245</v>
       </c>
@@ -11565,7 +9959,7 @@
       </c>
       <c r="G131" s="48"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="48" t="s">
         <v>245</v>
       </c>
@@ -11584,7 +9978,7 @@
       <c r="F132" s="48"/>
       <c r="G132" s="48"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="48" t="s">
         <v>245</v>
       </c>
@@ -11605,7 +9999,7 @@
       </c>
       <c r="G133" s="48"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="48" t="s">
         <v>245</v>
       </c>
@@ -11624,7 +10018,7 @@
       <c r="F134" s="48"/>
       <c r="G134" s="48"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="48" t="s">
         <v>245</v>
       </c>
@@ -11645,7 +10039,7 @@
       </c>
       <c r="G135" s="48"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="48" t="s">
         <v>245</v>
       </c>
@@ -11664,7 +10058,7 @@
       <c r="F136" s="48"/>
       <c r="G136" s="48"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="48" t="s">
         <v>245</v>
       </c>
@@ -11685,7 +10079,7 @@
       </c>
       <c r="G137" s="48"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="48" t="s">
         <v>245</v>
       </c>
@@ -11704,7 +10098,7 @@
       <c r="F138" s="48"/>
       <c r="G138" s="48"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="48" t="s">
         <v>245</v>
       </c>
@@ -11725,7 +10119,7 @@
       </c>
       <c r="G139" s="48"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="48" t="s">
         <v>245</v>
       </c>
@@ -11746,7 +10140,7 @@
       </c>
       <c r="G140" s="48"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="48" t="s">
         <v>245</v>
       </c>
@@ -11765,7 +10159,7 @@
       <c r="F141" s="48"/>
       <c r="G141" s="48"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="48" t="s">
         <v>245</v>
       </c>
@@ -11786,7 +10180,7 @@
       </c>
       <c r="G142" s="48"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="48" t="s">
         <v>245</v>
       </c>
@@ -11803,7 +10197,7 @@
       <c r="F143" s="48"/>
       <c r="G143" s="48"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="48" t="s">
         <v>245</v>
       </c>
@@ -11822,7 +10216,7 @@
       </c>
       <c r="G144" s="48"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="48" t="s">
         <v>245</v>
       </c>
@@ -11839,7 +10233,7 @@
       <c r="F145" s="48"/>
       <c r="G145" s="48"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="48" t="s">
         <v>245</v>
       </c>
@@ -11858,7 +10252,7 @@
       </c>
       <c r="G146" s="48"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="48" t="s">
         <v>245</v>
       </c>
@@ -11875,7 +10269,7 @@
       <c r="F147" s="48"/>
       <c r="G147" s="48"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="48" t="s">
         <v>245</v>
       </c>
@@ -11894,7 +10288,7 @@
       </c>
       <c r="G148" s="48"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="48" t="s">
         <v>245</v>
       </c>
@@ -11911,7 +10305,7 @@
       <c r="F149" s="48"/>
       <c r="G149" s="48"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="48" t="s">
         <v>245</v>
       </c>
@@ -11930,7 +10324,7 @@
       </c>
       <c r="G150" s="48"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="48" t="s">
         <v>245</v>
       </c>
@@ -11947,7 +10341,7 @@
       <c r="F151" s="48"/>
       <c r="G151" s="48"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="48" t="s">
         <v>245</v>
       </c>
@@ -11966,7 +10360,7 @@
       </c>
       <c r="G152" s="48"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="48" t="s">
         <v>245</v>
       </c>
@@ -11985,7 +10379,7 @@
       </c>
       <c r="G153" s="48"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="48" t="s">
         <v>245</v>
       </c>
@@ -12002,7 +10396,7 @@
       <c r="F154" s="48"/>
       <c r="G154" s="48"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="48" t="s">
         <v>245</v>
       </c>
@@ -12021,7 +10415,7 @@
       </c>
       <c r="G155" s="48"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="48" t="s">
         <v>245</v>
       </c>
@@ -12038,7 +10432,7 @@
       <c r="F156" s="48"/>
       <c r="G156" s="48"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="48" t="s">
         <v>245</v>
       </c>
@@ -12055,7 +10449,7 @@
       <c r="F157" s="48"/>
       <c r="G157" s="48"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="48" t="s">
         <v>245</v>
       </c>
@@ -12070,16 +10464,16 @@
       <c r="F158" s="48"/>
       <c r="G158" s="48"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="57"/>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="59"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
+      <c r="A159" s="67"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="69"/>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="11" t="s">
         <v>16</v>
       </c>
@@ -12098,7 +10492,7 @@
       </c>
       <c r="G160" s="11"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="11" t="s">
         <v>16</v>
       </c>
@@ -12117,7 +10511,7 @@
       </c>
       <c r="G161" s="11"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="11" t="s">
         <v>16</v>
       </c>
@@ -12138,7 +10532,7 @@
       </c>
       <c r="G162" s="11"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="11" t="s">
         <v>16</v>
       </c>
@@ -12159,7 +10553,7 @@
       </c>
       <c r="G163" s="11"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="11" t="s">
         <v>16</v>
       </c>
@@ -12178,7 +10572,7 @@
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="11" t="s">
         <v>16</v>
       </c>
@@ -12195,7 +10589,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="11" t="s">
         <v>16</v>
       </c>
@@ -12212,7 +10606,7 @@
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="11" t="s">
         <v>16</v>
       </c>
@@ -12229,7 +10623,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="11" t="s">
         <v>16</v>
       </c>
@@ -12248,7 +10642,7 @@
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="11" t="s">
         <v>16</v>
       </c>
@@ -12269,7 +10663,7 @@
       </c>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="11" t="s">
         <v>16</v>
       </c>
@@ -12288,7 +10682,7 @@
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="11" t="s">
         <v>16</v>
       </c>
@@ -12307,7 +10701,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="11" t="s">
         <v>16</v>
       </c>
@@ -12326,7 +10720,7 @@
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="11" t="s">
         <v>16</v>
       </c>
@@ -12345,7 +10739,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="11" t="s">
         <v>16</v>
       </c>
@@ -12364,7 +10758,7 @@
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="11" t="s">
         <v>16</v>
       </c>
@@ -12385,7 +10779,7 @@
       </c>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="11" t="s">
         <v>16</v>
       </c>
@@ -12404,7 +10798,7 @@
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="11" t="s">
         <v>16</v>
       </c>
@@ -12425,7 +10819,7 @@
       </c>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="11" t="s">
         <v>16</v>
       </c>
@@ -12444,7 +10838,7 @@
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="11" t="s">
         <v>16</v>
       </c>
@@ -12465,7 +10859,7 @@
       </c>
       <c r="G179" s="11"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="11" t="s">
         <v>16</v>
       </c>
@@ -12484,7 +10878,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="11" t="s">
         <v>16</v>
       </c>
@@ -12505,7 +10899,7 @@
       </c>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="11" t="s">
         <v>16</v>
       </c>
@@ -12524,7 +10918,7 @@
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="11" t="s">
         <v>16</v>
       </c>
@@ -12545,7 +10939,7 @@
       </c>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="11" t="s">
         <v>16</v>
       </c>
@@ -12566,7 +10960,7 @@
       </c>
       <c r="G184" s="11"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="11" t="s">
         <v>16</v>
       </c>
@@ -12585,7 +10979,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="11" t="s">
         <v>16</v>
       </c>
@@ -12606,7 +11000,7 @@
       </c>
       <c r="G186" s="11"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="11" t="s">
         <v>16</v>
       </c>
@@ -12623,7 +11017,7 @@
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="11" t="s">
         <v>16</v>
       </c>
@@ -12642,7 +11036,7 @@
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="11" t="s">
         <v>16</v>
       </c>
@@ -12663,7 +11057,7 @@
       </c>
       <c r="G189" s="11"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="11" t="s">
         <v>16</v>
       </c>
@@ -12684,7 +11078,7 @@
       </c>
       <c r="G190" s="11"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="11" t="s">
         <v>16</v>
       </c>
@@ -12705,7 +11099,7 @@
       </c>
       <c r="G191" s="11"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="11" t="s">
         <v>16</v>
       </c>
@@ -12726,7 +11120,7 @@
       </c>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="11" t="s">
         <v>16</v>
       </c>
@@ -12747,7 +11141,7 @@
       </c>
       <c r="G193" s="11"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="11" t="s">
         <v>16</v>
       </c>
@@ -12764,7 +11158,7 @@
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="11" t="s">
         <v>16</v>
       </c>
@@ -12779,16 +11173,16 @@
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="57"/>
-      <c r="B196" s="58"/>
-      <c r="C196" s="58"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="59"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
+      <c r="A196" s="67"/>
+      <c r="B196" s="68"/>
+      <c r="C196" s="68"/>
+      <c r="D196" s="68"/>
+      <c r="E196" s="68"/>
+      <c r="F196" s="68"/>
+      <c r="G196" s="69"/>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="8" t="s">
         <v>21</v>
       </c>
@@ -12807,7 +11201,7 @@
       </c>
       <c r="G197" s="8"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="8" t="s">
         <v>21</v>
       </c>
@@ -12826,7 +11220,7 @@
       </c>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="8" t="s">
         <v>21</v>
       </c>
@@ -12847,7 +11241,7 @@
       </c>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="8" t="s">
         <v>21</v>
       </c>
@@ -12868,7 +11262,7 @@
       </c>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="8" t="s">
         <v>21</v>
       </c>
@@ -12887,7 +11281,7 @@
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="8" t="s">
         <v>21</v>
       </c>
@@ -12904,7 +11298,7 @@
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="8" t="s">
         <v>21</v>
       </c>
@@ -12921,7 +11315,7 @@
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="8" t="s">
         <v>21</v>
       </c>
@@ -12938,7 +11332,7 @@
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="8" t="s">
         <v>21</v>
       </c>
@@ -12957,7 +11351,7 @@
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="8" t="s">
         <v>21</v>
       </c>
@@ -12978,7 +11372,7 @@
       </c>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="8" t="s">
         <v>21</v>
       </c>
@@ -12997,7 +11391,7 @@
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="8" t="s">
         <v>21</v>
       </c>
@@ -13016,7 +11410,7 @@
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="8" t="s">
         <v>21</v>
       </c>
@@ -13035,7 +11429,7 @@
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="8" t="s">
         <v>21</v>
       </c>
@@ -13054,7 +11448,7 @@
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="8" t="s">
         <v>21</v>
       </c>
@@ -13073,7 +11467,7 @@
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="8" t="s">
         <v>21</v>
       </c>
@@ -13094,7 +11488,7 @@
       </c>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="8" t="s">
         <v>21</v>
       </c>
@@ -13113,7 +11507,7 @@
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="8" t="s">
         <v>21</v>
       </c>
@@ -13134,7 +11528,7 @@
       </c>
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="8" t="s">
         <v>21</v>
       </c>
@@ -13153,7 +11547,7 @@
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="8" t="s">
         <v>21</v>
       </c>
@@ -13174,7 +11568,7 @@
       </c>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="8" t="s">
         <v>21</v>
       </c>
@@ -13193,7 +11587,7 @@
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="8" t="s">
         <v>21</v>
       </c>
@@ -13214,7 +11608,7 @@
       </c>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="8" t="s">
         <v>21</v>
       </c>
@@ -13233,7 +11627,7 @@
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="8" t="s">
         <v>21</v>
       </c>
@@ -13254,7 +11648,7 @@
       </c>
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="8" t="s">
         <v>21</v>
       </c>
@@ -13275,7 +11669,7 @@
       </c>
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="8" t="s">
         <v>21</v>
       </c>
@@ -13294,7 +11688,7 @@
       <c r="F222" s="8"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="8" t="s">
         <v>21</v>
       </c>
@@ -13315,7 +11709,7 @@
       </c>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="8" t="s">
         <v>21</v>
       </c>
@@ -13332,7 +11726,7 @@
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="8" t="s">
         <v>21</v>
       </c>
@@ -13351,7 +11745,7 @@
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="8" t="s">
         <v>21</v>
       </c>
@@ -13372,7 +11766,7 @@
       </c>
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="8" t="s">
         <v>21</v>
       </c>
@@ -13393,7 +11787,7 @@
       </c>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="8" t="s">
         <v>21</v>
       </c>
@@ -13414,7 +11808,7 @@
       </c>
       <c r="G228" s="8"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="8" t="s">
         <v>21</v>
       </c>
@@ -13435,7 +11829,7 @@
       </c>
       <c r="G229" s="8"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="8" t="s">
         <v>21</v>
       </c>
@@ -13456,7 +11850,7 @@
       </c>
       <c r="G230" s="8"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="8" t="s">
         <v>21</v>
       </c>
@@ -13475,7 +11869,7 @@
       <c r="F231" s="8"/>
       <c r="G231" s="8"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="8" t="s">
         <v>21</v>
       </c>
@@ -13492,7 +11886,7 @@
       <c r="F232" s="8"/>
       <c r="G232" s="8"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="8" t="s">
         <v>21</v>
       </c>
@@ -13507,16 +11901,16 @@
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="57"/>
-      <c r="B234" s="58"/>
-      <c r="C234" s="58"/>
-      <c r="D234" s="58"/>
-      <c r="E234" s="58"/>
-      <c r="F234" s="58"/>
-      <c r="G234" s="59"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
+      <c r="A234" s="67"/>
+      <c r="B234" s="68"/>
+      <c r="C234" s="68"/>
+      <c r="D234" s="68"/>
+      <c r="E234" s="68"/>
+      <c r="F234" s="68"/>
+      <c r="G234" s="69"/>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="38" t="s">
         <v>241</v>
       </c>
@@ -13535,7 +11929,7 @@
       </c>
       <c r="G235" s="38"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="38" t="s">
         <v>241</v>
       </c>
@@ -13554,7 +11948,7 @@
       </c>
       <c r="G236" s="38"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="38" t="s">
         <v>241</v>
       </c>
@@ -13575,7 +11969,7 @@
       </c>
       <c r="G237" s="38"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="38" t="s">
         <v>241</v>
       </c>
@@ -13596,7 +11990,7 @@
       </c>
       <c r="G238" s="38"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="38" t="s">
         <v>241</v>
       </c>
@@ -13615,7 +12009,7 @@
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="38" t="s">
         <v>241</v>
       </c>
@@ -13632,7 +12026,7 @@
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="38" t="s">
         <v>241</v>
       </c>
@@ -13649,7 +12043,7 @@
       <c r="F241" s="38"/>
       <c r="G241" s="38"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="38" t="s">
         <v>241</v>
       </c>
@@ -13666,7 +12060,7 @@
       <c r="F242" s="38"/>
       <c r="G242" s="38"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="38" t="s">
         <v>241</v>
       </c>
@@ -13685,7 +12079,7 @@
       <c r="F243" s="38"/>
       <c r="G243" s="38"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="38" t="s">
         <v>241</v>
       </c>
@@ -13706,7 +12100,7 @@
       </c>
       <c r="G244" s="38"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="38" t="s">
         <v>241</v>
       </c>
@@ -13725,7 +12119,7 @@
       <c r="F245" s="38"/>
       <c r="G245" s="38"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="38" t="s">
         <v>241</v>
       </c>
@@ -13744,7 +12138,7 @@
       <c r="F246" s="38"/>
       <c r="G246" s="38"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="38" t="s">
         <v>241</v>
       </c>
@@ -13763,7 +12157,7 @@
       <c r="F247" s="38"/>
       <c r="G247" s="38"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="38" t="s">
         <v>241</v>
       </c>
@@ -13782,7 +12176,7 @@
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="38" t="s">
         <v>241</v>
       </c>
@@ -13801,7 +12195,7 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="38" t="s">
         <v>241</v>
       </c>
@@ -13818,7 +12212,7 @@
       <c r="F250" s="38"/>
       <c r="G250" s="38"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="38" t="s">
         <v>241</v>
       </c>
@@ -13833,16 +12227,16 @@
       <c r="F251" s="38"/>
       <c r="G251" s="38"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="57"/>
-      <c r="B252" s="58"/>
-      <c r="C252" s="58"/>
-      <c r="D252" s="58"/>
-      <c r="E252" s="58"/>
-      <c r="F252" s="58"/>
-      <c r="G252" s="59"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
+      <c r="A252" s="67"/>
+      <c r="B252" s="68"/>
+      <c r="C252" s="68"/>
+      <c r="D252" s="68"/>
+      <c r="E252" s="68"/>
+      <c r="F252" s="68"/>
+      <c r="G252" s="69"/>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="5" t="s">
         <v>26</v>
       </c>
@@ -13861,7 +12255,7 @@
       </c>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="5" t="s">
         <v>26</v>
       </c>
@@ -13880,7 +12274,7 @@
       </c>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="5" t="s">
         <v>26</v>
       </c>
@@ -13901,7 +12295,7 @@
       </c>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="5" t="s">
         <v>26</v>
       </c>
@@ -13922,7 +12316,7 @@
       </c>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="5" t="s">
         <v>26</v>
       </c>
@@ -13941,7 +12335,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="5" t="s">
         <v>26</v>
       </c>
@@ -13958,7 +12352,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="5" t="s">
         <v>26</v>
       </c>
@@ -13975,7 +12369,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="5" t="s">
         <v>26</v>
       </c>
@@ -13992,7 +12386,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="5" t="s">
         <v>26</v>
       </c>
@@ -14011,7 +12405,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="5" t="s">
         <v>26</v>
       </c>
@@ -14032,7 +12426,7 @@
       </c>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="5" t="s">
         <v>26</v>
       </c>
@@ -14051,7 +12445,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="5" t="s">
         <v>26</v>
       </c>
@@ -14070,7 +12464,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="5" t="s">
         <v>26</v>
       </c>
@@ -14089,7 +12483,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="5" t="s">
         <v>26</v>
       </c>
@@ -14108,7 +12502,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="5" t="s">
         <v>26</v>
       </c>
@@ -14127,7 +12521,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="5" t="s">
         <v>26</v>
       </c>
@@ -14148,7 +12542,7 @@
       </c>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="5" t="s">
         <v>26</v>
       </c>
@@ -14167,7 +12561,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="5" t="s">
         <v>26</v>
       </c>
@@ -14188,7 +12582,7 @@
       </c>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="5" t="s">
         <v>26</v>
       </c>
@@ -14207,7 +12601,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="5" t="s">
         <v>26</v>
       </c>
@@ -14228,7 +12622,7 @@
       </c>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="5" t="s">
         <v>26</v>
       </c>
@@ -14247,7 +12641,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="5" t="s">
         <v>26</v>
       </c>
@@ -14268,7 +12662,7 @@
       </c>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="5" t="s">
         <v>26</v>
       </c>
@@ -14287,7 +12681,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="5" t="s">
         <v>26</v>
       </c>
@@ -14308,7 +12702,7 @@
       </c>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="5" t="s">
         <v>26</v>
       </c>
@@ -14329,7 +12723,7 @@
       </c>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="5" t="s">
         <v>26</v>
       </c>
@@ -14348,7 +12742,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="5" t="s">
         <v>26</v>
       </c>
@@ -14369,7 +12763,7 @@
       </c>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="5" t="s">
         <v>26</v>
       </c>
@@ -14386,7 +12780,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="5" t="s">
         <v>26</v>
       </c>
@@ -14405,7 +12799,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="5" t="s">
         <v>26</v>
       </c>
@@ -14426,7 +12820,7 @@
       </c>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="5" t="s">
         <v>26</v>
       </c>
@@ -14447,7 +12841,7 @@
       </c>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="5" t="s">
         <v>26</v>
       </c>
@@ -14468,7 +12862,7 @@
       </c>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="5" t="s">
         <v>26</v>
       </c>
@@ -14489,7 +12883,7 @@
       </c>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="5" t="s">
         <v>26</v>
       </c>
@@ -14510,7 +12904,7 @@
       </c>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="5" t="s">
         <v>26</v>
       </c>
@@ -14529,7 +12923,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="5" t="s">
         <v>26</v>
       </c>
@@ -14548,7 +12942,7 @@
       </c>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="5" t="s">
         <v>26</v>
       </c>
@@ -14565,7 +12959,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="5" t="s">
         <v>26</v>
       </c>
@@ -14580,16 +12974,16 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="57"/>
-      <c r="B291" s="58"/>
-      <c r="C291" s="58"/>
-      <c r="D291" s="58"/>
-      <c r="E291" s="58"/>
-      <c r="F291" s="58"/>
-      <c r="G291" s="59"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
+      <c r="A291" s="67"/>
+      <c r="B291" s="68"/>
+      <c r="C291" s="68"/>
+      <c r="D291" s="68"/>
+      <c r="E291" s="68"/>
+      <c r="F291" s="68"/>
+      <c r="G291" s="69"/>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" s="10" t="s">
         <v>24</v>
       </c>
@@ -14608,7 +13002,7 @@
       </c>
       <c r="G292" s="10"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="10" t="s">
         <v>24</v>
       </c>
@@ -14627,7 +13021,7 @@
       </c>
       <c r="G293" s="10"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="10" t="s">
         <v>24</v>
       </c>
@@ -14648,7 +13042,7 @@
       </c>
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="10" t="s">
         <v>24</v>
       </c>
@@ -14669,7 +13063,7 @@
       </c>
       <c r="G295" s="10"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="10" t="s">
         <v>24</v>
       </c>
@@ -14688,7 +13082,7 @@
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="10" t="s">
         <v>24</v>
       </c>
@@ -14701,7 +13095,7 @@
       <c r="F297" s="10"/>
       <c r="G297" s="10"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="10" t="s">
         <v>24</v>
       </c>
@@ -14714,7 +13108,7 @@
       <c r="F298" s="10"/>
       <c r="G298" s="10"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="10" t="s">
         <v>24</v>
       </c>
@@ -14727,7 +13121,7 @@
       <c r="F299" s="10"/>
       <c r="G299" s="10"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="10" t="s">
         <v>24</v>
       </c>
@@ -14740,16 +13134,16 @@
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="57"/>
-      <c r="B301" s="58"/>
-      <c r="C301" s="58"/>
-      <c r="D301" s="58"/>
-      <c r="E301" s="58"/>
-      <c r="F301" s="58"/>
-      <c r="G301" s="59"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
+      <c r="A301" s="67"/>
+      <c r="B301" s="68"/>
+      <c r="C301" s="68"/>
+      <c r="D301" s="68"/>
+      <c r="E301" s="68"/>
+      <c r="F301" s="68"/>
+      <c r="G301" s="69"/>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" s="38" t="s">
         <v>25</v>
       </c>
@@ -14768,7 +13162,7 @@
       </c>
       <c r="G302" s="38"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="38" t="s">
         <v>25</v>
       </c>
@@ -14787,7 +13181,7 @@
       </c>
       <c r="G303" s="38"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="38" t="s">
         <v>25</v>
       </c>
@@ -14808,7 +13202,7 @@
       </c>
       <c r="G304" s="38"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="38" t="s">
         <v>25</v>
       </c>
@@ -14829,7 +13223,7 @@
       </c>
       <c r="G305" s="38"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="38" t="s">
         <v>25</v>
       </c>
@@ -14848,7 +13242,7 @@
       <c r="F306" s="38"/>
       <c r="G306" s="38"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="38" t="s">
         <v>25</v>
       </c>
@@ -14861,7 +13255,7 @@
       <c r="F307" s="38"/>
       <c r="G307" s="38"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="38" t="s">
         <v>25</v>
       </c>
@@ -14874,14 +13268,14 @@
       <c r="F308" s="38"/>
       <c r="G308" s="38"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="57"/>
-      <c r="B309" s="58"/>
-      <c r="C309" s="58"/>
-      <c r="D309" s="58"/>
-      <c r="E309" s="58"/>
-      <c r="F309" s="58"/>
-      <c r="G309" s="59"/>
+    <row r="309" spans="1:7">
+      <c r="A309" s="67"/>
+      <c r="B309" s="68"/>
+      <c r="C309" s="68"/>
+      <c r="D309" s="68"/>
+      <c r="E309" s="68"/>
+      <c r="F309" s="68"/>
+      <c r="G309" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -14905,21 +13299,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>204</v>
       </c>
@@ -14927,7 +13321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
         <v>257</v>
       </c>
@@ -14935,7 +13329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
         <v>205</v>
       </c>
@@ -14943,7 +13337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
         <v>205</v>
       </c>
@@ -14951,7 +13345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="19" t="s">
         <v>205</v>
       </c>
@@ -14959,7 +13353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="22" t="s">
         <v>205</v>
       </c>
@@ -14967,7 +13361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
         <v>205</v>
       </c>
@@ -14975,7 +13369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="21" t="s">
         <v>205</v>
       </c>
@@ -14983,7 +13377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
         <v>205</v>
       </c>
@@ -14991,7 +13385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
         <v>205</v>
       </c>
@@ -14999,7 +13393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>205</v>
       </c>
@@ -15013,21 +13407,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>204</v>
       </c>
@@ -15035,7 +13429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
         <v>205</v>
       </c>
@@ -15043,7 +13437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
         <v>205</v>
       </c>
@@ -15051,7 +13445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
         <v>205</v>
       </c>
@@ -15059,7 +13453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="19" t="s">
         <v>205</v>
       </c>
@@ -15067,7 +13461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="22" t="s">
         <v>205</v>
       </c>
@@ -15075,7 +13469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
         <v>205</v>
       </c>
@@ -15083,7 +13477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="21" t="s">
         <v>205</v>
       </c>
@@ -15091,7 +13485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
         <v>205</v>
       </c>
@@ -15099,7 +13493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
         <v>205</v>
       </c>
@@ -15107,7 +13501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
         <v>205</v>
       </c>
@@ -15121,22 +13515,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="16" width="255.0" collapsed="true"/>
-    <col min="4" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="255" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>204</v>
       </c>
@@ -15147,7 +13541,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>235</v>
       </c>
@@ -15158,7 +13552,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
         <v>257</v>
       </c>
@@ -15166,10 +13560,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="24" t="s">
         <v>235</v>
       </c>
@@ -15180,7 +13574,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>258</v>
       </c>
@@ -15191,7 +13585,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="22" t="s">
         <v>259</v>
       </c>
@@ -15202,7 +13596,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="24" t="s">
         <v>260</v>
       </c>
@@ -15213,7 +13607,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
         <v>261</v>
       </c>
@@ -15224,7 +13618,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
         <v>262</v>
       </c>
@@ -15235,7 +13629,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="20" t="s">
         <v>263</v>
       </c>
@@ -15252,24 +13646,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="50.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="16" width="255.0" collapsed="true"/>
-    <col min="6" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.7109375" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="255" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
         <v>236</v>
       </c>
@@ -15286,7 +13680,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>313</v>
       </c>
@@ -15303,7 +13697,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
         <v>314</v>
       </c>
@@ -15320,7 +13714,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="24" t="s">
         <v>315</v>
       </c>
@@ -15337,7 +13731,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
         <v>316</v>
       </c>
@@ -15354,7 +13748,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="22" t="s">
         <v>317</v>
       </c>
@@ -15368,10 +13762,10 @@
         <v>27</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="24" t="s">
         <v>318</v>
       </c>
@@ -15388,7 +13782,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="21" t="s">
         <v>319</v>
       </c>
@@ -15405,7 +13799,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="17" t="s">
         <v>320</v>
       </c>
@@ -15422,7 +13816,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
         <v>321</v>
       </c>
@@ -15445,22 +13839,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="16" width="255.0" collapsed="true"/>
-    <col min="4" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="255" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>204</v>
       </c>
@@ -15471,7 +13865,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
         <v>235</v>
       </c>
@@ -15482,7 +13876,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
         <v>257</v>
       </c>
@@ -15490,10 +13884,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="24" t="s">
         <v>235</v>
       </c>
@@ -15504,7 +13898,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>258</v>
       </c>
@@ -15515,7 +13909,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="22" t="s">
         <v>259</v>
       </c>
@@ -15526,7 +13920,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="24" t="s">
         <v>260</v>
       </c>
@@ -15537,7 +13931,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="21" t="s">
         <v>261</v>
       </c>
@@ -15548,7 +13942,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
         <v>262</v>
       </c>
@@ -15559,7 +13953,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="20" t="s">
         <v>263</v>
       </c>
@@ -15576,29 +13970,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="11.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="16" width="18.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="16" width="255.0" collapsed="true"/>
-    <col min="11" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="255" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
         <v>105</v>
       </c>
@@ -15630,7 +14024,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
@@ -15659,10 +14053,10 @@
         <v>27</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="18" t="s">
         <v>210</v>
       </c>
@@ -15694,7 +14088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="25" t="s">
         <v>117</v>
       </c>
@@ -15726,7 +14120,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="28" t="s">
         <v>128</v>
       </c>
@@ -15758,7 +14152,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="30" t="s">
         <v>135</v>
       </c>
@@ -15790,7 +14184,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="25" t="s">
         <v>140</v>
       </c>
@@ -15822,7 +14216,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="32" t="s">
         <v>146</v>
       </c>
@@ -15854,7 +14248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="17" t="s">
         <v>152</v>
       </c>
@@ -15886,7 +14280,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="20" t="s">
         <v>157</v>
       </c>
@@ -15918,7 +14312,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
         <v>163</v>
       </c>
@@ -15956,29 +14350,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="16" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="16" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="16" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="16" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="11.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="16" width="18.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="16" width="7.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="16" width="9.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="16" width="255.0" collapsed="true"/>
-    <col min="11" max="16384" style="16" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.85546875" style="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="255" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
         <v>105</v>
       </c>
@@ -16010,7 +14404,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
@@ -16042,7 +14436,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="18" t="s">
         <v>210</v>
       </c>
@@ -16074,7 +14468,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="25" t="s">
         <v>117</v>
       </c>
@@ -16106,7 +14500,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="28" t="s">
         <v>128</v>
       </c>
@@ -16138,7 +14532,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="30" t="s">
         <v>135</v>
       </c>
@@ -16170,7 +14564,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="25" t="s">
         <v>140</v>
       </c>
@@ -16202,7 +14596,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="32" t="s">
         <v>146</v>
       </c>
@@ -16234,7 +14628,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="17" t="s">
         <v>152</v>
       </c>
@@ -16266,7 +14660,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="20" t="s">
         <v>157</v>
       </c>
@@ -16298,7 +14692,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="19" t="s">
         <v>163</v>
       </c>
